--- a/examples/EPPlus单行重复渲染/Template/Template.xlsx
+++ b/examples/EPPlus单行重复渲染/Template/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WorkFolder\Learn\GitHub\ExcelReport\examples\EPPlus单行重复渲染\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628D6613-CBA7-4099-BECA-CF111E3F19B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FB3BC2-79C6-4F69-A7ED-2676EC312BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,50 +20,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>2009级机械电子工程$[Author]专业学生名册</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>姓  名</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>性别</t>
   </si>
   <si>
+    <t>2009级机械电子工程$[Author]专业学生名册</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓  名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>班级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>档案号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>联系电话</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>电子信箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>&lt;[Roster]$[No]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>$[Name]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>$[Gender]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>$[Class]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="仿宋_GB2312"/>
-        <charset val="134"/>
-      </rPr>
       <t>$</t>
     </r>
     <r>
@@ -75,32 +81,33 @@
       </rPr>
       <t>[RecordNo]</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>$[Phone]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>$[Email]&gt;[Roster]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计人：</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Author]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="仿宋_GB2312"/>
       <charset val="134"/>
     </font>
     <font>
@@ -143,8 +150,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="仿宋_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,18 +179,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -222,22 +254,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,49 +294,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - 着色 3" xfId="1" builtinId="38"/>
+    <cellStyle name="40% - 着色 2" xfId="3" builtinId="35"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -606,74 +674,74 @@
   <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="4"/>
+    <col min="2" max="2" width="9.5" style="2"/>
     <col min="3" max="3" width="9.5"/>
-    <col min="4" max="4" width="8.625" style="4"/>
-    <col min="5" max="5" width="11.375" style="5"/>
-    <col min="6" max="6" width="15.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="2"/>
+    <col min="5" max="5" width="11.375" style="3"/>
+    <col min="6" max="6" width="15.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" s="14" customFormat="1" ht="13.5">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="81" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="18" t="s">
@@ -681,944 +749,950 @@
       </c>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
-      <c r="B21" s="14"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1">
-      <c r="B22" s="14"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1">
-      <c r="B23" s="14"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1">
-      <c r="B24" s="14"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1">
-      <c r="B25" s="14"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1">
-      <c r="B26" s="14"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1">
-      <c r="B27" s="14"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1">
-      <c r="B28" s="14"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1">
-      <c r="B29" s="14"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1">
-      <c r="B30" s="14"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1">
-      <c r="B31" s="14"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" s="3" customFormat="1">
-      <c r="B32" s="14"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="2:8" s="3" customFormat="1">
-      <c r="B33" s="14"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="2:8" s="3" customFormat="1">
-      <c r="B34" s="14"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="2:8" s="3" customFormat="1">
-      <c r="B35" s="14"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="2:8" s="3" customFormat="1">
-      <c r="B36" s="14"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="2:8" s="3" customFormat="1">
-      <c r="B37" s="14"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="2:8" s="3" customFormat="1">
-      <c r="B38" s="14"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="2:8" s="3" customFormat="1">
-      <c r="B39" s="14"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="2:8" s="3" customFormat="1">
-      <c r="B40" s="14"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="2:8" s="3" customFormat="1">
-      <c r="B41" s="14"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="2:8" s="3" customFormat="1">
-      <c r="B42" s="14"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="2:8" s="3" customFormat="1">
-      <c r="B43" s="14"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="2:8" s="3" customFormat="1">
-      <c r="B44" s="14"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="2:8" s="3" customFormat="1">
-      <c r="B45" s="14"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="2:8" s="3" customFormat="1">
-      <c r="B46" s="14"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="2:8" s="3" customFormat="1">
-      <c r="B47" s="14"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="2:8" s="3" customFormat="1">
-      <c r="B48" s="14"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="2:8" s="3" customFormat="1">
-      <c r="B49" s="14"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="2:8" s="3" customFormat="1">
-      <c r="B50" s="14"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="2:8" s="3" customFormat="1">
-      <c r="B51" s="14"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="2:8" s="3" customFormat="1">
-      <c r="B52" s="14"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="2:8" s="3" customFormat="1">
-      <c r="B53" s="14"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="2:8" s="3" customFormat="1">
-      <c r="B54" s="14"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="2:8" s="3" customFormat="1">
-      <c r="B55" s="14"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="2:8" s="3" customFormat="1">
-      <c r="B56" s="14"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+    <row r="4" spans="1:8" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1">
+      <c r="B21" s="9"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1">
+      <c r="B22" s="9"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1">
+      <c r="B23" s="9"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1">
+      <c r="B24" s="9"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1">
+      <c r="B25" s="9"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1">
+      <c r="B26" s="9"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1">
+      <c r="B27" s="9"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1">
+      <c r="B28" s="9"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1">
+      <c r="B29" s="9"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1">
+      <c r="B30" s="9"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1">
+      <c r="B31" s="9"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1">
+      <c r="B32" s="9"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:8" s="1" customFormat="1">
+      <c r="B33" s="9"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:8" s="1" customFormat="1">
+      <c r="B34" s="9"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8" s="1" customFormat="1">
+      <c r="B35" s="9"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8" s="1" customFormat="1">
+      <c r="B36" s="9"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" s="1" customFormat="1">
+      <c r="B37" s="9"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8" s="1" customFormat="1">
+      <c r="B38" s="9"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" s="1" customFormat="1">
+      <c r="B39" s="9"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" s="1" customFormat="1">
+      <c r="B40" s="9"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8" s="1" customFormat="1">
+      <c r="B41" s="9"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8" s="1" customFormat="1">
+      <c r="B42" s="9"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8" s="1" customFormat="1">
+      <c r="B43" s="9"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8" s="1" customFormat="1">
+      <c r="B44" s="9"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8" s="1" customFormat="1">
+      <c r="B45" s="9"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" s="1" customFormat="1">
+      <c r="B46" s="9"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8" s="1" customFormat="1">
+      <c r="B47" s="9"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" s="1" customFormat="1">
+      <c r="B48" s="9"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:8" s="1" customFormat="1">
+      <c r="B49" s="9"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:8" s="1" customFormat="1">
+      <c r="B50" s="9"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8" s="1" customFormat="1">
+      <c r="B51" s="9"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8" s="1" customFormat="1">
+      <c r="B52" s="9"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8" s="1" customFormat="1">
+      <c r="B53" s="9"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:8" s="1" customFormat="1">
+      <c r="B54" s="9"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:8" s="1" customFormat="1">
+      <c r="B55" s="9"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="2:8" s="1" customFormat="1">
+      <c r="B56" s="9"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="14"/>
-      <c r="G57" s="7"/>
+      <c r="B57" s="9"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="14"/>
-      <c r="G58" s="7"/>
+      <c r="B58" s="9"/>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="14"/>
-      <c r="G59" s="7"/>
+      <c r="B59" s="9"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="14"/>
-      <c r="G60" s="7"/>
+      <c r="B60" s="9"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="14"/>
-      <c r="G61" s="7"/>
+      <c r="B61" s="9"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="14"/>
-      <c r="G62" s="7"/>
+      <c r="B62" s="9"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="14"/>
-      <c r="G63" s="7"/>
+      <c r="B63" s="9"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="14"/>
-      <c r="G64" s="7"/>
+      <c r="B64" s="9"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="14"/>
-      <c r="G65" s="7"/>
+      <c r="B65" s="9"/>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="14"/>
-      <c r="G66" s="7"/>
+      <c r="B66" s="9"/>
+      <c r="G66" s="5"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="14"/>
-      <c r="G67" s="7"/>
+      <c r="B67" s="9"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="14"/>
-      <c r="G68" s="7"/>
+      <c r="B68" s="9"/>
+      <c r="G68" s="5"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="14"/>
-      <c r="G69" s="7"/>
+      <c r="B69" s="9"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="14"/>
-      <c r="G70" s="7"/>
+      <c r="B70" s="9"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="14"/>
-      <c r="G71" s="7"/>
+      <c r="B71" s="9"/>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="14"/>
-      <c r="G72" s="7"/>
+      <c r="B72" s="9"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="14"/>
-      <c r="G73" s="7"/>
+      <c r="B73" s="9"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="14"/>
-      <c r="G74" s="7"/>
+      <c r="B74" s="9"/>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="14"/>
-      <c r="G75" s="7"/>
+      <c r="B75" s="9"/>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="14"/>
-      <c r="G76" s="7"/>
+      <c r="B76" s="9"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="14"/>
-      <c r="G77" s="7"/>
+      <c r="B77" s="9"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="14"/>
-      <c r="G78" s="7"/>
+      <c r="B78" s="9"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="14"/>
-      <c r="G79" s="7"/>
+      <c r="B79" s="9"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="14"/>
-      <c r="G80" s="7"/>
+      <c r="B80" s="9"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="14"/>
-      <c r="G81" s="7"/>
+      <c r="B81" s="9"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="14"/>
-      <c r="G82" s="7"/>
+      <c r="B82" s="9"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="14"/>
-      <c r="G83" s="7"/>
+      <c r="B83" s="9"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="14"/>
-      <c r="G84" s="7"/>
+      <c r="B84" s="9"/>
+      <c r="G84" s="5"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="14"/>
-      <c r="G85" s="7"/>
+      <c r="B85" s="9"/>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="14"/>
-      <c r="G86" s="7"/>
+      <c r="B86" s="9"/>
+      <c r="G86" s="5"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="14"/>
-      <c r="G87" s="7"/>
+      <c r="B87" s="9"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="14"/>
-      <c r="G88" s="7"/>
+      <c r="B88" s="9"/>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="14"/>
-      <c r="G89" s="7"/>
+      <c r="B89" s="9"/>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="14"/>
-      <c r="G90" s="7"/>
+      <c r="B90" s="9"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="14"/>
-      <c r="G91" s="7"/>
+      <c r="B91" s="9"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="14"/>
-      <c r="G92" s="7"/>
+      <c r="B92" s="9"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="14"/>
-      <c r="G93" s="7"/>
+      <c r="B93" s="9"/>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="14"/>
-      <c r="G94" s="7"/>
+      <c r="B94" s="9"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="14"/>
-      <c r="G95" s="7"/>
+      <c r="B95" s="9"/>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="14"/>
-      <c r="G96" s="7"/>
+      <c r="B96" s="9"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="14"/>
-      <c r="G97" s="7"/>
+      <c r="B97" s="9"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="14"/>
-      <c r="G98" s="7"/>
+      <c r="B98" s="9"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="14"/>
-      <c r="G99" s="7"/>
+      <c r="B99" s="9"/>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="14"/>
-      <c r="G100" s="7"/>
+      <c r="B100" s="9"/>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="14"/>
-      <c r="G101" s="7"/>
+      <c r="B101" s="9"/>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="14"/>
-      <c r="G102" s="7"/>
+      <c r="B102" s="9"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="14"/>
-      <c r="G103" s="7"/>
+      <c r="B103" s="9"/>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="14"/>
-      <c r="G104" s="7"/>
+      <c r="B104" s="9"/>
+      <c r="G104" s="5"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="14"/>
-      <c r="G105" s="7"/>
+      <c r="B105" s="9"/>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="14"/>
-      <c r="G106" s="7"/>
+      <c r="B106" s="9"/>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="14"/>
-      <c r="G107" s="7"/>
+      <c r="B107" s="9"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="14"/>
-      <c r="G108" s="7"/>
+      <c r="B108" s="9"/>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="14"/>
-      <c r="G109" s="7"/>
+      <c r="B109" s="9"/>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="14"/>
-      <c r="G110" s="7"/>
+      <c r="B110" s="9"/>
+      <c r="G110" s="5"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="14"/>
-      <c r="G111" s="7"/>
+      <c r="B111" s="9"/>
+      <c r="G111" s="5"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="14"/>
-      <c r="G112" s="7"/>
+      <c r="B112" s="9"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="14"/>
-      <c r="G113" s="7"/>
+      <c r="B113" s="9"/>
+      <c r="G113" s="5"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="14"/>
-      <c r="G114" s="7"/>
+      <c r="B114" s="9"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="14"/>
-      <c r="G115" s="7"/>
+      <c r="B115" s="9"/>
+      <c r="G115" s="5"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="14"/>
-      <c r="G116" s="7"/>
+      <c r="B116" s="9"/>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="14"/>
-      <c r="G117" s="7"/>
+      <c r="B117" s="9"/>
+      <c r="G117" s="5"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="14"/>
-      <c r="G118" s="7"/>
+      <c r="B118" s="9"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="14"/>
-      <c r="G119" s="7"/>
+      <c r="B119" s="9"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="14"/>
-      <c r="G120" s="7"/>
+      <c r="B120" s="9"/>
+      <c r="G120" s="5"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="14"/>
-      <c r="G121" s="7"/>
+      <c r="B121" s="9"/>
+      <c r="G121" s="5"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="14"/>
-      <c r="G122" s="7"/>
+      <c r="B122" s="9"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="14"/>
-      <c r="G123" s="7"/>
+      <c r="B123" s="9"/>
+      <c r="G123" s="5"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="14"/>
-      <c r="G124" s="7"/>
+      <c r="B124" s="9"/>
+      <c r="G124" s="5"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="14"/>
-      <c r="G125" s="7"/>
+      <c r="B125" s="9"/>
+      <c r="G125" s="5"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="14"/>
-      <c r="G126" s="7"/>
+      <c r="B126" s="9"/>
+      <c r="G126" s="5"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="14"/>
-      <c r="G127" s="7"/>
+      <c r="B127" s="9"/>
+      <c r="G127" s="5"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="14"/>
-      <c r="G128" s="7"/>
+      <c r="B128" s="9"/>
+      <c r="G128" s="5"/>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="14"/>
-      <c r="G129" s="7"/>
+      <c r="B129" s="9"/>
+      <c r="G129" s="5"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="14"/>
-      <c r="G130" s="7"/>
+      <c r="B130" s="9"/>
+      <c r="G130" s="5"/>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="14"/>
-      <c r="G131" s="7"/>
+      <c r="B131" s="9"/>
+      <c r="G131" s="5"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="14"/>
-      <c r="G132" s="7"/>
+      <c r="B132" s="9"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="14"/>
-      <c r="G133" s="7"/>
+      <c r="B133" s="9"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="14"/>
-      <c r="G134" s="7"/>
+      <c r="B134" s="9"/>
+      <c r="G134" s="5"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="14"/>
-      <c r="G135" s="7"/>
+      <c r="B135" s="9"/>
+      <c r="G135" s="5"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="14"/>
-      <c r="G136" s="7"/>
+      <c r="B136" s="9"/>
+      <c r="G136" s="5"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="14"/>
-      <c r="G137" s="7"/>
+      <c r="B137" s="9"/>
+      <c r="G137" s="5"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="14"/>
-      <c r="G138" s="7"/>
+      <c r="B138" s="9"/>
+      <c r="G138" s="5"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="14"/>
-      <c r="G139" s="7"/>
+      <c r="B139" s="9"/>
+      <c r="G139" s="5"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="14"/>
-      <c r="G140" s="7"/>
+      <c r="B140" s="9"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="14"/>
-      <c r="G141" s="7"/>
+      <c r="B141" s="9"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="14"/>
-      <c r="G142" s="7"/>
+      <c r="B142" s="9"/>
+      <c r="G142" s="5"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="14"/>
-      <c r="G143" s="7"/>
+      <c r="B143" s="9"/>
+      <c r="G143" s="5"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="14"/>
-      <c r="G144" s="7"/>
+      <c r="B144" s="9"/>
+      <c r="G144" s="5"/>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="14"/>
-      <c r="G145" s="7"/>
+      <c r="B145" s="9"/>
+      <c r="G145" s="5"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="14"/>
-      <c r="G146" s="7"/>
+      <c r="B146" s="9"/>
+      <c r="G146" s="5"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="14"/>
+      <c r="B147" s="9"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="14"/>
+      <c r="B148" s="9"/>
     </row>
     <row r="149" spans="2:7">
-      <c r="B149" s="14"/>
+      <c r="B149" s="9"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="14"/>
+      <c r="B150" s="9"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="14"/>
+      <c r="B151" s="9"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="14"/>
+      <c r="B152" s="9"/>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="14"/>
+      <c r="B153" s="9"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="14"/>
+      <c r="B154" s="9"/>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="14"/>
+      <c r="B155" s="9"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="14"/>
+      <c r="B156" s="9"/>
     </row>
     <row r="157" spans="2:7">
-      <c r="B157" s="14"/>
+      <c r="B157" s="9"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="14"/>
+      <c r="B158" s="9"/>
     </row>
     <row r="159" spans="2:7">
-      <c r="B159" s="14"/>
+      <c r="B159" s="9"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="14"/>
+      <c r="B160" s="9"/>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="14"/>
+      <c r="B161" s="9"/>
     </row>
     <row r="162" spans="2:2">
-      <c r="B162" s="14"/>
+      <c r="B162" s="9"/>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="14"/>
+      <c r="B163" s="9"/>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="14"/>
+      <c r="B164" s="9"/>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="14"/>
+      <c r="B165" s="9"/>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="14"/>
+      <c r="B166" s="9"/>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="14"/>
+      <c r="B167" s="9"/>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="14"/>
+      <c r="B168" s="9"/>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="14"/>
+      <c r="B169" s="9"/>
     </row>
     <row r="170" spans="2:2">
-      <c r="B170" s="14"/>
+      <c r="B170" s="9"/>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="14"/>
+      <c r="B171" s="9"/>
     </row>
     <row r="172" spans="2:2">
-      <c r="B172" s="14"/>
+      <c r="B172" s="9"/>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="14"/>
+      <c r="B173" s="9"/>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="14"/>
+      <c r="B174" s="9"/>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="14"/>
+      <c r="B175" s="9"/>
     </row>
     <row r="176" spans="2:2">
-      <c r="B176" s="14"/>
+      <c r="B176" s="9"/>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" s="14"/>
+      <c r="B177" s="9"/>
     </row>
     <row r="178" spans="2:2">
-      <c r="B178" s="14"/>
+      <c r="B178" s="9"/>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="14"/>
+      <c r="B179" s="9"/>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="14"/>
+      <c r="B180" s="9"/>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="14"/>
+      <c r="B181" s="9"/>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="14"/>
+      <c r="B182" s="9"/>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="14"/>
+      <c r="B183" s="9"/>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="14"/>
+      <c r="B184" s="9"/>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="14"/>
+      <c r="B185" s="9"/>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="14"/>
+      <c r="B186" s="9"/>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="14"/>
+      <c r="B187" s="9"/>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="14"/>
+      <c r="B188" s="9"/>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="14"/>
+      <c r="B189" s="9"/>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="14"/>
+      <c r="B190" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.78740157480314998" bottom="0.78740157480314998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/examples/EPPlus单行重复渲染/Template/Template.xlsx
+++ b/examples/EPPlus单行重复渲染/Template/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WorkFolder\Learn\GitHub\ExcelReport\examples\EPPlus单行重复渲染\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FB3BC2-79C6-4F69-A7ED-2676EC312BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1CABE8-57B5-44FE-BDF3-8DCE31382CD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>性别</t>
   </si>
@@ -88,16 +88,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>$[Email]&gt;[Roster]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>统计人：</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>$[Author]</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Email]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;[Roster]</t>
   </si>
 </sst>
 </file>
@@ -161,6 +164,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -310,15 +314,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -329,12 +324,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -354,6 +343,21 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -674,7 +678,7 @@
   <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -690,18 +694,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" ht="13.5">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="13.5">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -720,56 +724,69 @@
       <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" s="15" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" s="15" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" s="15" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="8"/>
